--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3922235.411765466</v>
+        <v>4025032.831833119</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498525</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7176674.041236012</v>
+        <v>7142774.310972055</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -710,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>224.3935191073109</v>
+        <v>71.0541878456891</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -823,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>73.22780231375836</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>64.1285868417189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>7.105050763512834</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>83.41943806107113</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>49.18176307023111</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>15.72846594283918</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>104.673726391937</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>361.3697241471377</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>76.53473577342082</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>79.9452261003228</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1421,13 +1423,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1528,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>34.45703212904674</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>45.89043756183489</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,10 +1612,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1765,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>42.71572132711285</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,16 +1821,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>219.4517041866519</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>99.97427419833815</v>
+        <v>18.93832930943095</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187855</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>127.5379405516738</v>
+        <v>73.93222849083782</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569552</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>9.146142788179368</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>137.7722340923506</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2555,13 +2557,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>154.4892550148508</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>142.962173606588</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308914</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.239490800229</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652761</v>
+        <v>43.55707494718591</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808189</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972043</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>126.9263824507425</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652577</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808192</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096047</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065889</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>212.3267021497095</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>79.05856366754465</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3794,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>91.87204320893618</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808293</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,10 +4327,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2735.124556099686</v>
+        <v>2684.035021879487</v>
       </c>
       <c r="W2" t="n">
-        <v>2382.355900829572</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="X2" t="n">
-        <v>2008.890142568492</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y2" t="n">
-        <v>1618.75081059268</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>920.3423867623641</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>751.4062038344572</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>601.2895644221214</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1446.505797040963</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V4" t="n">
-        <v>1191.821308835076</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W4" t="n">
-        <v>1191.821308835076</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="X4" t="n">
-        <v>1191.821308835076</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="Y4" t="n">
-        <v>1127.044958489905</v>
+        <v>1101.990851592604</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1685.375546116517</v>
+        <v>1175.300932605788</v>
       </c>
       <c r="C5" t="n">
-        <v>1316.413029176105</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D5" t="n">
-        <v>1316.413029176105</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,19 +4564,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4586,7 +4588,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
@@ -4598,19 +4600,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180638</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y5" t="n">
-        <v>2071.975386180638</v>
+        <v>1561.90077266991</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>678.2257657051542</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C7" t="n">
-        <v>678.2257657051542</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D7" t="n">
-        <v>528.1091262928185</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1416.425065783662</v>
+        <v>1408.124251906171</v>
       </c>
       <c r="W7" t="n">
-        <v>1127.007895746702</v>
+        <v>1408.124251906171</v>
       </c>
       <c r="X7" t="n">
-        <v>899.0183448486844</v>
+        <v>1180.134701008154</v>
       </c>
       <c r="Y7" t="n">
-        <v>678.2257657051542</v>
+        <v>959.3421218646239</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3109.584116376734</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3109.584116376734</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2736.118358115654</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.979026139843</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4874,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
@@ -4881,22 +4883,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>479.6639240396553</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C10" t="n">
-        <v>310.7277411117484</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1846.541794451803</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1654.855910278629</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1433.089294848156</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1143.986427973799</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V10" t="n">
-        <v>889.3019397679124</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="W10" t="n">
-        <v>889.3019397679124</v>
+        <v>1071.595817172699</v>
       </c>
       <c r="X10" t="n">
-        <v>661.312388869895</v>
+        <v>1071.595817172699</v>
       </c>
       <c r="Y10" t="n">
-        <v>661.312388869895</v>
+        <v>1071.595817172699</v>
       </c>
     </row>
     <row r="11">
@@ -5021,16 +5023,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5039,28 +5041,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,22 +5120,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098237</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819168</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2400.609106245074</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2217.754271899978</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1998.152806922919</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1709.077580267117</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1454.39309206123</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5260,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5276,10 +5278,10 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,7 +5290,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400717</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400717</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>365.9405071576786</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>219.0505596597682</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5598,19 +5600,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>341.9229394630504</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>195.03299196514</v>
       </c>
       <c r="G19" t="n">
-        <v>194.8007783998286</v>
+        <v>195.03299196514</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5835,22 +5837,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,31 +6007,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>3194.624135499466</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597619</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>4507.978318053499</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>4368.814445232942</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>4079.73921857714</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>3825.054730371254</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>3825.054730371254</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>3597.065179473236</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>3376.272600329706</v>
       </c>
     </row>
     <row r="26">
@@ -6209,25 +6211,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6242,19 +6244,19 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832228</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>634.9279362553159</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.396372297858</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V28" t="n">
-        <v>1723.711884091971</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.29471405501</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134625</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6445,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6455,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,31 +6481,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590559</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>2252.031751697596</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>2585.956523868816</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>3081.282130084575</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>3678.660617711127</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>3678.660617711127</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>4230.570347950414</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>4654.193497445482</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445482</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2978.493192213311</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C31" t="n">
-        <v>2834.086956247061</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D31" t="n">
-        <v>2708.500263796381</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="E31" t="n">
-        <v>2585.117117175645</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="F31" t="n">
-        <v>2462.75711663939</v>
+        <v>446.7216388920917</v>
       </c>
       <c r="G31" t="n">
-        <v>2320.090964315927</v>
+        <v>279.5255396069717</v>
       </c>
       <c r="H31" t="n">
-        <v>2202.909080119781</v>
+        <v>137.8137084491698</v>
       </c>
       <c r="I31" t="n">
-        <v>2145.352323729349</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2249.630143176792</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2535.36120671945</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>2949.80160191251</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3395.853105660664</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3837.304778337792</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4230.875860063896</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4547.593116654574</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4648.317395612652</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>4489.992508229213</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4294.92099021381</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>4030.375710519664</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>3800.221169275434</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>3535.33394620013</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>3331.874342263769</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>3135.611710081895</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6674,61 +6676,61 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6740,10 +6742,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>2877.307316025035</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>3474.685803651586</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>4102.283767206193</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V33" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2978.49319221331</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>2834.086956247059</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>2708.500263796379</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E34" t="n">
-        <v>2585.117117175643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F34" t="n">
-        <v>2462.757116639389</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="G34" t="n">
-        <v>2320.090964315925</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2202.909080119779</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2145.352323729349</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2249.630143176792</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2535.36120671945</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>2949.80160191251</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3395.853105660664</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3837.304778337792</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4230.875860063896</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4547.593116654574</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4648.317395612651</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4489.992508229212</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4294.920990213809</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>4030.375710519663</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>3800.221169275432</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3535.333946200128</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3331.874342263767</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>3135.611710081893</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6926,16 +6928,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6950,22 +6952,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -6974,13 +6976,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1762.98966419767</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7165,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,7 +7408,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,22 +7493,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7661,37 +7663,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>379.6759351444937</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>212.4798358593736</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -23416,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>20.4848091482868</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>122.808416965156</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23707,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>67.07129414993909</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>40.32043864788574</v>
+        <v>121.3563835367929</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>39.70888054695405</v>
+        <v>93.31459260779002</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>79.63321623493763</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>71.22040037418631</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>37.70876137137961</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>38.59775584152634</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25366,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>73.85777223953468</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,10 +25560,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>66.3624843553866</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25792,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>54.56191943763299</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>22.81817176293616</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>615119.0532077018</v>
+        <v>615119.0532077017</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>615119.0532077018</v>
+        <v>615119.0532077017</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>615119.0532077017</v>
+        <v>615119.0532077018</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>615119.0532077018</v>
+        <v>615119.0532077017</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>625540.4308384097</v>
+        <v>615119.0532077017</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>625540.4308384097</v>
+        <v>615119.0532077017</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>625540.4308384097</v>
+        <v>615119.0532077017</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>625540.4308384097</v>
+        <v>615119.0532077017</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>625540.4308384097</v>
+        <v>615119.0532077017</v>
       </c>
     </row>
     <row r="16">
@@ -26317,43 +26319,43 @@
         <v>821041.7698642832</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.599690006</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="G2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="H2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="I2" t="n">
         <v>807146.5996900059</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>807146.5996900059</v>
       </c>
-      <c r="I2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="K2" t="n">
-        <v>821041.7698642849</v>
-      </c>
       <c r="L2" t="n">
-        <v>821041.7698642839</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.7698642849</v>
+        <v>807146.599690006</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.7698642837</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="O2" t="n">
-        <v>821041.7698642848</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.599690006</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363178</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551174</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>89744.12305813248</v>
+      </c>
+      <c r="C4" t="n">
         <v>89744.12305813255</v>
       </c>
-      <c r="C4" t="n">
-        <v>89744.12305813254</v>
-      </c>
       <c r="D4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678126</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678122</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678128</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>18547.9475498747</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>18547.94754987475</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>18547.94754987473</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="N4" t="n">
-        <v>18547.94754987468</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>18547.94754987468</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
-        <v>10557.08828678124</v>
+        <v>10557.08828678121</v>
       </c>
     </row>
     <row r="5">
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-705381.0394828354</v>
+        <v>-705381.0394828353</v>
       </c>
       <c r="C6" t="n">
-        <v>623363.7062447574</v>
+        <v>623363.7062447575</v>
       </c>
       <c r="D6" t="n">
-        <v>623363.7062447574</v>
+        <v>623363.706244757</v>
       </c>
       <c r="E6" t="n">
-        <v>370054.5197719629</v>
+        <v>370054.5197719624</v>
       </c>
       <c r="F6" t="n">
-        <v>695466.9815793179</v>
+        <v>695466.9815793175</v>
       </c>
       <c r="G6" t="n">
         <v>695466.9815793177</v>
       </c>
       <c r="H6" t="n">
-        <v>695466.9815793176</v>
+        <v>695466.9815793175</v>
       </c>
       <c r="I6" t="n">
-        <v>695466.9815793181</v>
+        <v>695466.9815793175</v>
       </c>
       <c r="J6" t="n">
-        <v>477935.7791820404</v>
+        <v>477935.7791820402</v>
       </c>
       <c r="K6" t="n">
-        <v>679901.9884668631</v>
+        <v>695466.9815793177</v>
       </c>
       <c r="L6" t="n">
-        <v>699329.7064604937</v>
+        <v>695466.9815793178</v>
       </c>
       <c r="M6" t="n">
-        <v>614274.678524983</v>
+        <v>610411.9536438058</v>
       </c>
       <c r="N6" t="n">
-        <v>699329.7064604936</v>
+        <v>695466.9815793177</v>
       </c>
       <c r="O6" t="n">
-        <v>699329.7064604948</v>
+        <v>695466.9815793178</v>
       </c>
       <c r="P6" t="n">
-        <v>695466.9815793182</v>
+        <v>695466.9815793177</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26694,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,13 +26810,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>103.358739362824</v>
+        <v>256.6980706244458</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27543,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>73.20616033281081</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>154.4560665103759</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>358.1678410074947</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>298.5109320111907</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27670,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>97.25219957633806</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>236.4091773809888</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>223.0785320781979</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>24.86821450891591</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>103.2972444085165</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>8.986926569724531</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28330,19 +28332,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28390,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28801,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28810,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28867,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29047,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29086,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,25 +31840,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>627.2230337139555</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32104,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32318,7 +32320,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>248.7449369209195</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32333,7 +32335,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32557,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>579.5299594447131</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270667</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>433.9798411722585</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>163.572382128305</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209195</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>145.7021085929661</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>453.4978307576753</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33737,25 +33739,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>354.9153144485699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33971,16 +33973,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>279.2419622547062</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33995,7 +33997,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34138,7 +34140,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34211,10 +34213,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34375,7 +34377,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34445,31 +34447,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O12" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>488.6686539340813</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35966,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>110.1905571410453</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35981,7 +35983,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>291.8458072502402</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>228.3679864663302</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>25.73094315394599</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410453</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>18.86448192629938</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549932</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986648</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919382</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>314.9434509778011</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>228.3679864663302</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>140.6875824748321</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37643,7 +37645,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37859,10 +37861,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,13 +38025,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243171</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4025032.831833119</v>
+        <v>4021020.221819129</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,16 +667,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>108.526202247763</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>71.0541878456891</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>73.22780231375836</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>7.105050763512834</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>211.3954436932319</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>5.264199955998538</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>15.72846594283918</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>134.0513867710698</v>
       </c>
       <c r="Y8" t="n">
-        <v>361.3697241471377</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>76.53473577342082</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1423,13 +1423,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>45.89043756183489</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534142</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1612,16 +1612,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>219.4517041866519</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881288</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>18.93832930943095</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2143,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>73.93222849083782</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>109.0909680372345</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569552</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>137.7722340923506</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599955</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>154.4892550148508</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
-        <v>43.55707494718591</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881295</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>126.9263824507425</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>3.006892987834567</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,19 +3480,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>212.3267021497095</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>79.05856366754465</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>91.87204320893618</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>117.4765410832877</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1941.127034633561</v>
+        <v>1771.41801219738</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.164517693149</v>
+        <v>1402.455495256968</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>1044.189796650218</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2684.035021879487</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W2" t="n">
-        <v>2331.266366609372</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X2" t="n">
-        <v>2331.266366609372</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y2" t="n">
-        <v>1941.127034633561</v>
+        <v>2158.017852261502</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.3423867623641</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>751.4062038344572</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>601.2895644221214</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592604</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>1101.990851592604</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>1101.990851592604</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>1101.990851592604</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1175.300932605788</v>
+        <v>1506.363819949361</v>
       </c>
       <c r="C5" t="n">
-        <v>1168.124113652745</v>
+        <v>1506.363819949361</v>
       </c>
       <c r="D5" t="n">
-        <v>809.8584150459947</v>
+        <v>1148.098121342611</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>1148.098121342611</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>737.112216553003</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>322.0397663979995</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906802</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645722</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>1561.90077266991</v>
+        <v>1892.963660013483</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>777.6936570343842</v>
+        <v>684.4520072430315</v>
       </c>
       <c r="C7" t="n">
-        <v>608.7574741064773</v>
+        <v>684.4520072430315</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6408346941415</v>
+        <v>534.3353678306958</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>386.4222742483026</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>239.5323267503923</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>71.82949012511125</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1408.124251906171</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>1408.124251906171</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X7" t="n">
-        <v>1180.134701008154</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y7" t="n">
-        <v>959.3421218646239</v>
+        <v>866.1004720732712</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1320.35562273557</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180639</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="Y8" t="n">
-        <v>1706.955462799692</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>994.2880032601528</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1361.01298720966</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1071.595817172699</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1071.595817172699</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>1071.595817172699</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5023,16 +5023,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5047,19 +5047,19 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5348780504994</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2400.609106245074</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2217.754271899978</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T13" t="n">
-        <v>1998.152806922919</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U13" t="n">
-        <v>1709.077580267117</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V13" t="n">
-        <v>1454.39309206123</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W13" t="n">
-        <v>1164.975922024269</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X13" t="n">
-        <v>1164.975922024269</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y13" t="n">
-        <v>944.1833428807391</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="14">
@@ -5260,37 +5260,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5357,28 +5357,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L15" t="n">
-        <v>913.2907898187001</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187001</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5506,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5597,22 +5597,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>639.9526724577793</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>489.8360330454435</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>341.9229394630504</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>195.03299196514</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>195.03299196514</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5755,7 +5755,7 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,13 +5764,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438171</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703114</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D22" t="n">
         <v>470.7064074803617</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5983,22 +5983,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6007,31 +6007,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3194.624135499466</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>3025.687952571559</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376194</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>4368.814445232942</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>4079.73921857714</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>3825.054730371254</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>3825.054730371254</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>3597.065179473236</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>3376.272600329706</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>119.2902967703784</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2233.355914590559</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>2252.031751697596</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>2585.956523868816</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>3081.282130084575</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3678.660617711127</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3678.660617711127</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O30" t="n">
-        <v>4230.570347950414</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>4654.193497445482</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>762.547769317909</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>593.6115863900021</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>593.6115863900021</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>593.6115863900021</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>446.7216388920917</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>279.5255396069717</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>137.8137084491698</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6718,34 +6718,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2565.513299557012</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>2877.307316025035</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>3474.685803651586</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>4102.283767206193</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6840,22 +6840,22 @@
         <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>363.7369613277359</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E34" t="n">
-        <v>363.7369613277359</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>363.7369613277359</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>264.0500279773693</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1762.98966419767</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1508.305175991783</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1508.305175991783</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.315625093766</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>695.5020655703109</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>545.3854261579752</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>397.4723325755821</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7405,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,22 +7423,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>415.5933575433587</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>379.6759351444937</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>212.4798358593736</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20.4848091482868</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>46.45968844823039</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>67.07129414993909</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>121.3563835367929</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>93.31459260779002</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>39.52450498097787</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>79.63321623493763</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>71.22040037418631</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>37.70876137137961</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>43.72409101823369</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>38.59775584152634</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>142.4141550350967</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>73.85777223953468</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>66.3624843553866</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>54.56191943763299</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>22.81817176293616</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>615119.0532077018</v>
+        <v>615119.0532077017</v>
       </c>
     </row>
     <row r="10">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642833</v>
+      </c>
+      <c r="C2" t="n">
         <v>821041.769864283</v>
       </c>
-      <c r="C2" t="n">
-        <v>821041.7698642832</v>
-      </c>
       <c r="D2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="F2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="G2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="H2" t="n">
         <v>807146.5996900059</v>
       </c>
-      <c r="G2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="H2" t="n">
-        <v>807146.599690006</v>
-      </c>
       <c r="I2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="J2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="M2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="P2" t="n">
         <v>807146.599690006</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551174</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>89744.12305813246</v>
+      </c>
+      <c r="C4" t="n">
+        <v>89744.12305813246</v>
+      </c>
+      <c r="D4" t="n">
         <v>89744.12305813248</v>
       </c>
-      <c r="C4" t="n">
-        <v>89744.12305813255</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89744.12305813251</v>
-      </c>
       <c r="E4" t="n">
-        <v>10557.08828678126</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
@@ -26447,16 +26447,16 @@
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
+        <v>10557.08828678117</v>
+      </c>
+      <c r="M4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="M4" t="n">
-        <v>10557.08828678125</v>
       </c>
       <c r="N4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678115</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-705381.0394828353</v>
+        <v>-705381.0394828351</v>
       </c>
       <c r="C6" t="n">
-        <v>623363.7062447575</v>
+        <v>623363.7062447573</v>
       </c>
       <c r="D6" t="n">
-        <v>623363.706244757</v>
+        <v>623363.7062447577</v>
       </c>
       <c r="E6" t="n">
-        <v>370054.5197719624</v>
+        <v>369707.1405176058</v>
       </c>
       <c r="F6" t="n">
-        <v>695466.9815793175</v>
+        <v>695119.6023249611</v>
       </c>
       <c r="G6" t="n">
-        <v>695466.9815793177</v>
+        <v>695119.602324961</v>
       </c>
       <c r="H6" t="n">
-        <v>695466.9815793175</v>
+        <v>695119.6023249605</v>
       </c>
       <c r="I6" t="n">
-        <v>695466.9815793175</v>
+        <v>695119.602324961</v>
       </c>
       <c r="J6" t="n">
-        <v>477935.7791820402</v>
+        <v>477588.3999276835</v>
       </c>
       <c r="K6" t="n">
-        <v>695466.9815793177</v>
+        <v>695119.602324961</v>
       </c>
       <c r="L6" t="n">
-        <v>695466.9815793178</v>
+        <v>695119.602324961</v>
       </c>
       <c r="M6" t="n">
-        <v>610411.9536438058</v>
+        <v>610064.5743894491</v>
       </c>
       <c r="N6" t="n">
-        <v>695466.9815793177</v>
+        <v>695119.602324961</v>
       </c>
       <c r="O6" t="n">
-        <v>695466.9815793178</v>
+        <v>695119.602324961</v>
       </c>
       <c r="P6" t="n">
-        <v>695466.9815793177</v>
+        <v>695119.6023249608</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26718,10 +26718,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26810,28 +26810,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="L4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="L4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>273.4041678244988</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>256.6980706244458</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>73.20616033281081</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>358.1678410074947</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>83.21232069408853</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>139.4908149583222</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>236.4091773809888</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>235.6797139073992</v>
       </c>
       <c r="Y8" t="n">
-        <v>24.86821450891591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>103.2972444085165</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>24.68204843992099</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28332,19 +28332,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>718.5832682008314</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,22 +32077,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L15" t="n">
-        <v>627.2230337139555</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32101,7 +32101,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32317,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,34 +32548,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>579.5299594447131</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>549.9198891312099</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32788,16 +32788,16 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>433.9798411722585</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -32806,10 +32806,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33025,13 +33025,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>163.572382128305</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33262,7 +33262,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>145.7021085929661</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422586</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33444,7 +33444,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33499,13 +33499,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>453.4978307576753</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,13 +33727,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,34 +33742,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>209.9499448422518</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>396.970088694367</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>587.2415561174981</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35725,22 +35725,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L15" t="n">
-        <v>488.6686539340813</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>440.9755796648388</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>291.8458072502402</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36454,10 +36454,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>25.73094315394599</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36910,7 +36910,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>18.86448192629938</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>314.9434509778011</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>71.39556506237764</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>254.8360547723487</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,19 +37861,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315785</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4021020.221819129</v>
+        <v>4022780.752121914</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>108.526202247763</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>220.7944836021522</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>203.1977700471494</v>
+        <v>203.1977700471489</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>211.3954436932319</v>
+        <v>211.395443693231</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>5.264199955998538</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>4.043187116398555</v>
       </c>
     </row>
     <row r="8">
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>134.0513867710698</v>
+        <v>134.0513867710689</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>71.6703719699171</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560526</v>
       </c>
     </row>
     <row r="12">
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>134.5665975534142</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>111.5512144998717</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187862</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>109.0909680372345</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>119.6760079449709</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>122.6028762599955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>142.1343012721633</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>3.453391420150774</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>104.8913819999787</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>3.006892987834567</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1771.41801219738</v>
+        <v>1771.418012197378</v>
       </c>
       <c r="C2" t="n">
-        <v>1402.455495256968</v>
+        <v>1402.455495256966</v>
       </c>
       <c r="D2" t="n">
-        <v>1044.189796650218</v>
+        <v>1044.189796650216</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1044.189796650216</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792696</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.483610522581</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X2" t="n">
-        <v>2158.017852261502</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y2" t="n">
-        <v>2158.017852261502</v>
+        <v>2158.0178522615</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4485,19 +4485,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,22 +4509,22 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W4" t="n">
         <v>1722.044275313594</v>
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1506.363819949361</v>
+        <v>1506.36381994936</v>
       </c>
       <c r="C5" t="n">
-        <v>1506.363819949361</v>
+        <v>1506.36381994936</v>
       </c>
       <c r="D5" t="n">
-        <v>1148.098121342611</v>
+        <v>1148.09812134261</v>
       </c>
       <c r="E5" t="n">
-        <v>1148.098121342611</v>
+        <v>1148.09812134261</v>
       </c>
       <c r="F5" t="n">
-        <v>737.112216553003</v>
+        <v>737.1122165530021</v>
       </c>
       <c r="G5" t="n">
-        <v>322.0397663979995</v>
+        <v>322.0397663979986</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250374</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X5" t="n">
         <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>1892.963660013483</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="6">
@@ -4643,16 +4643,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>684.4520072430315</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>684.4520072430315</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>534.3353678306958</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>386.4222742483026</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>239.5323267503923</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>71.82949012511125</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,16 +4746,16 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
         <v>1638.191681214136</v>
@@ -4764,13 +4764,13 @@
         <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1004720732712</v>
+        <v>866.1004720732708</v>
       </c>
       <c r="Y7" t="n">
-        <v>866.1004720732712</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4798,34 +4798,34 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4880,16 +4880,16 @@
         <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4959,7 +4959,7 @@
         <v>138.9064315533118</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5023,34 +5023,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5059,25 +5059,25 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.7825789706076</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8463960427007</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2243.991523718104</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2024.390058741045</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1735.314832085242</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1480.630343879355</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1191.213173842395</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>963.2236229443774</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.4310438008473</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5269,7 +5269,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5281,16 +5281,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5354,10 +5354,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
         <v>409.1360811687896</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5478,10 +5478,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5597,19 +5597,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>642.8692823226939</v>
       </c>
       <c r="C22" t="n">
-        <v>580.8993044876693</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F22" t="n">
         <v>175.9033664000582</v>
@@ -5937,25 +5937,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2326.078227070189</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2106.476762093131</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1817.401535437329</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>824.5177471529337</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6071,19 +6071,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6223,10 +6223,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075811</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,10 +6490,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6554,10 +6554,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2376.429105670894</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2156.827640693835</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1867.752414038033</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1613.067925832146</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="32">
@@ -6697,19 +6697,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6718,10 +6718,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398594</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797189</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921476</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898186995</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373306</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
         <v>2516.421633107662</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597624</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E37" t="n">
-        <v>264.0500279773693</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7405,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,22 +7423,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>46.45968844823039</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>114.1584408891654</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>39.52450498097787</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24177,7 +24177,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>61.35027805667373</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>110.0033420516647</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>177.5728945814938</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>43.72409101823369</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>142.4141550350967</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.37941682720972</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>615119.0532077017</v>
+        <v>615119.0532077018</v>
       </c>
     </row>
     <row r="6">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>615119.0532077017</v>
+        <v>615119.0532077018</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642835</v>
@@ -26328,34 +26328,34 @@
         <v>807146.5996900061</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="J2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="M2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900063</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813258</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813252</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678129</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
@@ -26456,7 +26456,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678115</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-705381.0394828351</v>
+        <v>-705381.039482835</v>
       </c>
       <c r="C6" t="n">
-        <v>623363.7062447573</v>
+        <v>623363.7062447574</v>
       </c>
       <c r="D6" t="n">
-        <v>623363.7062447577</v>
+        <v>623363.7062447575</v>
       </c>
       <c r="E6" t="n">
-        <v>369707.1405176058</v>
+        <v>370019.7818465271</v>
       </c>
       <c r="F6" t="n">
-        <v>695119.6023249611</v>
+        <v>695432.2436538822</v>
       </c>
       <c r="G6" t="n">
-        <v>695119.602324961</v>
+        <v>695432.2436538822</v>
       </c>
       <c r="H6" t="n">
-        <v>695119.6023249605</v>
+        <v>695432.2436538821</v>
       </c>
       <c r="I6" t="n">
-        <v>695119.602324961</v>
+        <v>695432.2436538823</v>
       </c>
       <c r="J6" t="n">
-        <v>477588.3999276835</v>
+        <v>477901.0412566047</v>
       </c>
       <c r="K6" t="n">
-        <v>695119.602324961</v>
+        <v>695432.2436538824</v>
       </c>
       <c r="L6" t="n">
-        <v>695119.602324961</v>
+        <v>695432.2436538821</v>
       </c>
       <c r="M6" t="n">
-        <v>610064.5743894491</v>
+        <v>610377.2157183705</v>
       </c>
       <c r="N6" t="n">
-        <v>695119.602324961</v>
+        <v>695432.2436538822</v>
       </c>
       <c r="O6" t="n">
-        <v>695119.602324961</v>
+        <v>695432.2436538825</v>
       </c>
       <c r="P6" t="n">
-        <v>695119.6023249608</v>
+        <v>695432.2436538824</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26822,16 +26822,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>273.4041678244988</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>186.0815621395592</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>83.32522828944164</v>
+        <v>83.32522828944209</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>83.21232069408853</v>
+        <v>83.21232069408947</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>139.4908149583222</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>214.5414662356962</v>
       </c>
     </row>
     <row r="8">
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>235.6797139073992</v>
+        <v>235.6797139074001</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>24.68204843992099</v>
+        <v>24.68204843992098</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>9.641133868265976e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28338,13 +28338,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>-5.340952993396433e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>320.9147064709962</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>303.4024373464761</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32332,7 +32332,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551105</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>400.5469039565762</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>357.9244589488883</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>400.5469039565762</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33742,19 +33742,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>209.9499448422518</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>400.5469039565762</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>175.6052721551105</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>189.5729943876629</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>165.5609983721171</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35980,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075146</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>257.9506595121318</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>226.582746865555</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>257.9506595121318</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>71.39556506237764</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>257.9506595121318</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>37.76383318075146</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315785</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
